--- a/BackTest/2020-01-19 BackTest POWR.xlsx
+++ b/BackTest/2020-01-19 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>9001.185662319986</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>14401.18566231999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>47.39</v>
       </c>
       <c r="J3" t="n">
         <v>47.39</v>
       </c>
-      <c r="K3" t="n">
-        <v>47.39</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>148387.92096232</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="J4" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K4" t="n">
         <v>47.39</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>178387.92096232</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="J5" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K5" t="n">
         <v>47.39</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,16 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,18 +636,19 @@
         <v>206388.48466232</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>48.19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>48.19</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,18 +673,23 @@
         <v>147575.87796232</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>48.06</v>
+      </c>
+      <c r="J8" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,22 +714,23 @@
         <v>173306.39336232</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>47.65</v>
       </c>
       <c r="J9" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="K9" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>48.19</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,26 +755,23 @@
         <v>140224.30196232</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="J10" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>48.19</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -812,26 +796,23 @@
         <v>138674.30196232</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.69</v>
       </c>
       <c r="J11" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K11" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>48.19</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -856,22 +837,23 @@
         <v>138674.30196232</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="J12" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>48.19</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -896,26 +878,23 @@
         <v>139284.30196232</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="J13" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>48.19</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,24 +919,23 @@
         <v>139486.15196232</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>47.97</v>
+      </c>
+      <c r="J14" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,24 +960,23 @@
         <v>139695.71196232</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="J15" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1026,22 +1003,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1068,22 +1042,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,24 +1079,21 @@
         <v>138055.71196232</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1152,22 +1120,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1194,22 +1159,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1236,22 +1198,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1278,22 +1237,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1320,22 +1276,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1362,22 +1315,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1404,22 +1354,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1446,22 +1393,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1488,22 +1432,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1530,22 +1471,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1572,22 +1510,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1614,22 +1549,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1656,22 +1588,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1698,22 +1627,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1740,22 +1666,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1782,22 +1705,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1824,22 +1744,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1866,22 +1783,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1908,22 +1822,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1950,22 +1861,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1992,22 +1900,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2034,22 +1939,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2076,22 +1978,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2118,22 +2017,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2160,22 +2056,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2202,22 +2095,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2244,22 +2134,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2284,24 +2171,21 @@
         <v>101430.59162789</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2328,22 +2212,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2370,22 +2251,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2412,22 +2290,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2452,24 +2327,21 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2496,22 +2368,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2538,22 +2407,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2580,22 +2446,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2620,24 +2483,21 @@
         <v>127444.30462789</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2662,24 +2522,21 @@
         <v>127444.30462789</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2704,24 +2561,21 @@
         <v>127444.30462789</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2748,22 +2602,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2790,22 +2641,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2832,22 +2680,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1.029105263157895</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2874,16 +2719,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2908,18 +2756,21 @@
         <v>239625.90762789</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.013883585806184</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2944,18 +2795,15 @@
         <v>239637.90762789</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2980,18 +2828,15 @@
         <v>236904.03502789</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3016,18 +2861,15 @@
         <v>234161.91342789</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3052,18 +2894,15 @@
         <v>201220.42442789</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3088,18 +2927,15 @@
         <v>201202.24262789</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3124,18 +2960,15 @@
         <v>198924.39962789</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3162,16 +2995,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3198,16 +3028,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3232,18 +3059,15 @@
         <v>197368.56692789</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3270,16 +3094,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3306,16 +3127,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3342,16 +3160,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3378,16 +3193,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3414,16 +3226,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3450,16 +3259,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3486,16 +3292,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3520,18 +3323,15 @@
         <v>123781.74692789</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3558,16 +3358,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3594,16 +3391,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3630,16 +3424,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3664,18 +3455,15 @@
         <v>123682.43352789</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3702,16 +3490,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3738,16 +3523,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3774,16 +3556,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3808,18 +3587,15 @@
         <v>133861.17556772</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3846,16 +3622,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3882,16 +3655,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3918,16 +3688,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3952,18 +3719,15 @@
         <v>301674.5179677201</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3990,16 +3754,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4026,16 +3787,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4062,16 +3820,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4098,16 +3853,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4134,16 +3886,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4170,16 +3919,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4206,16 +3952,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4242,16 +3985,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4278,16 +4018,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4314,16 +4051,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4350,16 +4084,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4386,16 +4117,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4422,16 +4150,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4458,16 +4183,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4492,18 +4214,15 @@
         <v>433402.99575838</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4528,18 +4247,15 @@
         <v>433402.99575838</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4564,18 +4280,15 @@
         <v>432463.92295838</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,18 +4313,15 @@
         <v>431561.67655838</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4636,18 +4346,15 @@
         <v>377163.62355838</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4674,16 +4381,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4710,16 +4414,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4746,16 +4447,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4782,16 +4480,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4818,16 +4513,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4854,16 +4546,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4890,16 +4579,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4926,16 +4612,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4962,16 +4645,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4998,16 +4678,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5032,18 +4709,15 @@
         <v>355239.28225838</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5070,16 +4744,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5104,20 +4775,17 @@
         <v>355228.28225838</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest POWR.xlsx
+++ b/BackTest/2020-01-19 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>9001.185662319986</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14401.18566231999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>47.39</v>
@@ -521,7 +521,7 @@
         <v>148387.92096232</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>47.4</v>
@@ -562,11 +562,9 @@
         <v>178387.92096232</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>47.39</v>
       </c>
@@ -636,14 +634,10 @@
         <v>206388.48466232</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>48.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -673,19 +667,11 @@
         <v>147575.87796232</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="J8" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,19 +700,11 @@
         <v>173306.39336232</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="J9" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -755,19 +733,11 @@
         <v>140224.30196232</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,19 +766,15 @@
         <v>138674.30196232</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>47.69</v>
       </c>
       <c r="J11" t="n">
-        <v>48.19</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.69</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -837,17 +803,15 @@
         <v>138674.30196232</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -878,17 +842,17 @@
         <v>139284.30196232</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>47.5</v>
       </c>
       <c r="J13" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -919,13 +883,11 @@
         <v>139486.15196232</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -960,13 +922,11 @@
         <v>139695.71196232</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1005,7 +965,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1044,7 +1004,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1079,11 +1039,11 @@
         <v>138055.71196232</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1122,7 +1082,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1161,7 +1121,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1200,7 +1160,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1239,7 +1199,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1278,7 +1238,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1317,7 +1277,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1356,7 +1316,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1395,7 +1355,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1434,7 +1394,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1473,7 +1433,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1512,7 +1472,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1551,7 +1511,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1590,7 +1550,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1629,7 +1589,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1668,7 +1628,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1707,7 +1667,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1746,7 +1706,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1785,7 +1745,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1824,7 +1784,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1863,7 +1823,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1902,7 +1862,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1941,7 +1901,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1980,7 +1940,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2019,7 +1979,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2058,7 +2018,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2097,7 +2057,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2136,7 +2096,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2171,11 +2131,11 @@
         <v>101430.59162789</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2214,7 +2174,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2253,7 +2213,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2292,7 +2252,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2327,11 +2287,11 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2370,7 +2330,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2409,7 +2369,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2448,7 +2408,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2483,11 +2443,11 @@
         <v>127444.30462789</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2522,11 +2482,11 @@
         <v>127444.30462789</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2561,11 +2521,11 @@
         <v>127444.30462789</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2604,7 +2564,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2643,7 +2603,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2682,7 +2642,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2721,7 +2681,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2756,19 +2716,19 @@
         <v>239625.90762789</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>48.19</v>
+        <v>47.69</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.013883585806184</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2795,11 +2755,17 @@
         <v>239637.90762789</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2828,11 +2794,17 @@
         <v>236904.03502789</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2833,17 @@
         <v>234161.91342789</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +2872,17 @@
         <v>201220.42442789</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +2911,17 @@
         <v>201202.24262789</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +2950,17 @@
         <v>198924.39962789</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +2992,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +3031,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3067,17 @@
         <v>197368.56692789</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3109,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3148,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3161,8 +3187,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3226,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3265,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3304,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3343,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3323,11 +3379,17 @@
         <v>123781.74692789</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3421,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3499,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3455,11 +3535,17 @@
         <v>123682.43352789</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +3577,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +3616,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +3655,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +3691,17 @@
         <v>133861.17556772</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +3733,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +3772,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +3811,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3847,17 @@
         <v>301674.5179677201</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +3889,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +3967,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4006,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4045,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4084,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4123,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4162,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4016,13 +4198,19 @@
         <v>373067.62056772</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>1.029808135877543</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4082,7 +4270,7 @@
         <v>375367.62056772</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4115,7 +4303,7 @@
         <v>412424.8575583801</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4148,7 +4336,7 @@
         <v>406221.8575583801</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4181,7 +4369,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4214,7 +4402,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4247,7 +4435,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4280,7 +4468,7 @@
         <v>432463.92295838</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4313,7 +4501,7 @@
         <v>431561.67655838</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4346,7 +4534,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4379,7 +4567,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4412,7 +4600,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4445,7 +4633,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4478,7 +4666,7 @@
         <v>376047.63695838</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4511,7 +4699,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4544,7 +4732,7 @@
         <v>374768.54615838</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4577,7 +4765,7 @@
         <v>375938.54615838</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4610,7 +4798,7 @@
         <v>373356.85255838</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4643,7 +4831,7 @@
         <v>350910.57215838</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4676,7 +4864,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4709,7 +4897,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4742,7 +4930,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4775,7 +4963,7 @@
         <v>355228.28225838</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4786,6 +4974,6 @@
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest POWR.xlsx
+++ b/BackTest/2020-01-19 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,7 +562,7 @@
         <v>178387.92096232</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -601,7 +601,7 @@
         <v>223387.92096232</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +634,7 @@
         <v>206388.48466232</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -667,7 +667,7 @@
         <v>147575.87796232</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -700,7 +700,7 @@
         <v>173306.39336232</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>140224.30196232</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -766,14 +766,10 @@
         <v>138674.30196232</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="J11" t="n">
-        <v>47.69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -806,14 +802,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -842,19 +832,11 @@
         <v>139284.30196232</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,17 +865,11 @@
         <v>139486.15196232</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,17 +898,11 @@
         <v>139695.71196232</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,17 +931,11 @@
         <v>138055.71196232</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1003,14 +967,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1042,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,17 +1030,11 @@
         <v>138153.22986232</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1120,14 +1066,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1159,14 +1099,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1198,14 +1132,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1237,14 +1165,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1276,14 +1198,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1315,14 +1231,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1354,14 +1264,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1393,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1432,14 +1330,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1471,14 +1363,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1510,14 +1396,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1549,14 +1429,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1588,14 +1462,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1627,14 +1495,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1666,14 +1528,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1705,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1744,14 +1594,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1783,14 +1627,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1822,14 +1660,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1861,14 +1693,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1900,14 +1726,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1939,14 +1759,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1978,14 +1792,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2017,14 +1825,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2056,14 +1858,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2095,14 +1891,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2134,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2170,17 +1954,11 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2209,17 +1987,11 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2248,17 +2020,11 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2287,17 +2053,11 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2326,17 +2086,11 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2365,17 +2119,11 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2407,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2188,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2221,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2254,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2287,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2602,14 +2320,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2641,14 +2353,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2719,14 +2419,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2758,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2797,14 +2485,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2518,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2875,14 +2551,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2914,14 +2584,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2953,14 +2617,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2992,14 +2650,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3031,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +2716,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3148,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3187,14 +2815,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3226,14 +2848,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3265,14 +2881,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3304,14 +2914,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3343,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3382,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3421,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3460,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3499,14 +3079,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3538,14 +3112,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3577,14 +3145,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3616,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3655,14 +3211,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3694,14 +3244,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3733,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3772,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3811,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3850,14 +3376,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3889,14 +3409,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3928,14 +3442,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3967,14 +3475,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4006,14 +3508,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4045,14 +3541,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4084,14 +3574,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4123,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4162,14 +3640,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4198,19 +3670,13 @@
         <v>373067.62056772</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>1.029808135877543</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4270,7 +3736,7 @@
         <v>375367.62056772</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4303,7 +3769,7 @@
         <v>412424.8575583801</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4336,7 +3802,7 @@
         <v>406221.8575583801</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4369,7 +3835,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4402,7 +3868,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4435,7 +3901,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4468,7 +3934,7 @@
         <v>432463.92295838</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4501,7 +3967,7 @@
         <v>431561.67655838</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4534,7 +4000,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4567,7 +4033,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4600,7 +4066,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4633,7 +4099,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4666,7 +4132,7 @@
         <v>376047.63695838</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4699,7 +4165,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4732,7 +4198,7 @@
         <v>374768.54615838</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4765,7 +4231,7 @@
         <v>375938.54615838</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4798,7 +4264,7 @@
         <v>373356.85255838</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4831,7 +4297,7 @@
         <v>350910.57215838</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4864,7 +4330,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4897,7 +4363,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4930,7 +4396,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4963,7 +4429,7 @@
         <v>355228.28225838</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4974,6 +4440,6 @@
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest POWR.xlsx
+++ b/BackTest/2020-01-19 BackTest POWR.xlsx
@@ -562,7 +562,7 @@
         <v>178387.92096232</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
@@ -601,7 +601,7 @@
         <v>223387.92096232</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +634,7 @@
         <v>206388.48466232</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -667,7 +667,7 @@
         <v>147575.87796232</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -700,7 +700,7 @@
         <v>173306.39336232</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>140224.30196232</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -766,7 +766,7 @@
         <v>138674.30196232</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>139486.15196232</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -898,7 +898,7 @@
         <v>139695.71196232</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -931,7 +931,7 @@
         <v>138055.71196232</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
         <v>138153.22986232</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1954,7 +1954,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +1987,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2020,7 @@
         <v>83478.40552788999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2053,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2086,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
         <v>88843.75022788999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
         <v>301674.5179677201</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
         <v>274480.7707677201</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3439,7 @@
         <v>315428.4461677201</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
         <v>312990.4065677201</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
         <v>312990.4065677201</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3538,7 @@
         <v>285214.4065677201</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3769,7 +3769,7 @@
         <v>412424.8575583801</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3802,7 @@
         <v>406221.8575583801</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3835,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
         <v>433402.99575838</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3934,7 +3934,7 @@
         <v>432463.92295838</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4000,7 +4000,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4033,7 +4033,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         <v>377163.62355838</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4132,7 +4132,7 @@
         <v>376047.63695838</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
         <v>374877.63695838</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4198,7 @@
         <v>374768.54615838</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4231,7 @@
         <v>375938.54615838</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4264,7 @@
         <v>373356.85255838</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
         <v>350910.57215838</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4330,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>355239.28225838</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4429,7 @@
         <v>355228.28225838</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest POWR.xlsx
+++ b/BackTest/2020-01-19 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>53056.9107</v>
       </c>
       <c r="G2" t="n">
-        <v>9001.185662319986</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>5400</v>
       </c>
       <c r="G3" t="n">
-        <v>14401.18566231999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>47.39</v>
       </c>
       <c r="I3" t="n">
         <v>47.39</v>
       </c>
-      <c r="J3" t="n">
-        <v>47.39</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>133986.7353</v>
       </c>
       <c r="G4" t="n">
-        <v>148387.92096232</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>47.4</v>
       </c>
       <c r="I4" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47.39</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>47.39</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,23 @@
         <v>30000</v>
       </c>
       <c r="G5" t="n">
-        <v>178387.92096232</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>47.39</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>47.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,18 +583,23 @@
         <v>45000</v>
       </c>
       <c r="G6" t="n">
-        <v>223387.92096232</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>48.06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +621,21 @@
         <v>16999.4363</v>
       </c>
       <c r="G7" t="n">
-        <v>206388.48466232</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +657,23 @@
         <v>58812.6067</v>
       </c>
       <c r="G8" t="n">
-        <v>147575.87796232</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>48.06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +695,23 @@
         <v>25730.5154</v>
       </c>
       <c r="G9" t="n">
-        <v>173306.39336232</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>47.65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +733,23 @@
         <v>33082.0914</v>
       </c>
       <c r="G10" t="n">
-        <v>140224.30196232</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>47.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,18 +771,23 @@
         <v>1550</v>
       </c>
       <c r="G11" t="n">
-        <v>138674.30196232</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>47.69</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,18 +809,23 @@
         <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>138674.30196232</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>47.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,18 +847,23 @@
         <v>610</v>
       </c>
       <c r="G13" t="n">
-        <v>139284.30196232</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>47.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,18 +885,21 @@
         <v>201.85</v>
       </c>
       <c r="G14" t="n">
-        <v>139486.15196232</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,18 +921,21 @@
         <v>209.56</v>
       </c>
       <c r="G15" t="n">
-        <v>139695.71196232</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,18 +957,21 @@
         <v>1640</v>
       </c>
       <c r="G16" t="n">
-        <v>138055.71196232</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,18 +993,21 @@
         <v>1312.4833</v>
       </c>
       <c r="G17" t="n">
-        <v>138055.71196232</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,18 +1029,21 @@
         <v>39137.3833</v>
       </c>
       <c r="G18" t="n">
-        <v>138055.71196232</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,18 +1065,21 @@
         <v>97.5179</v>
       </c>
       <c r="G19" t="n">
-        <v>138153.22986232</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,18 +1101,21 @@
         <v>10734.2218</v>
       </c>
       <c r="G20" t="n">
-        <v>148887.45166232</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,18 +1137,21 @@
         <v>207.46887966</v>
       </c>
       <c r="G21" t="n">
-        <v>149094.92054198</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1126,18 +1173,21 @@
         <v>17167.4706</v>
       </c>
       <c r="G22" t="n">
-        <v>131927.44994198</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,18 +1209,21 @@
         <v>927.6365</v>
       </c>
       <c r="G23" t="n">
-        <v>132855.08644198</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,18 +1245,21 @@
         <v>108.28778591</v>
       </c>
       <c r="G24" t="n">
-        <v>132963.37422789</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1225,18 +1281,21 @@
         <v>493.2173</v>
       </c>
       <c r="G25" t="n">
-        <v>133456.59152789</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1258,18 +1317,21 @@
         <v>121.08</v>
       </c>
       <c r="G26" t="n">
-        <v>133577.67152789</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1353,21 @@
         <v>930.1748</v>
       </c>
       <c r="G27" t="n">
-        <v>132647.49672789</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1389,21 @@
         <v>951.0997</v>
       </c>
       <c r="G28" t="n">
-        <v>132647.49672789</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,18 +1425,23 @@
         <v>2003.2836</v>
       </c>
       <c r="G29" t="n">
-        <v>130644.21312789</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>48.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,18 +1463,21 @@
         <v>750.0708</v>
       </c>
       <c r="G30" t="n">
-        <v>130644.21312789</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1423,18 +1499,21 @@
         <v>1355</v>
       </c>
       <c r="G31" t="n">
-        <v>130644.21312789</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1456,18 +1535,21 @@
         <v>4615.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>130644.21312789</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1489,18 +1571,21 @@
         <v>6600</v>
       </c>
       <c r="G33" t="n">
-        <v>130644.21312789</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,18 +1607,21 @@
         <v>18316.0113</v>
       </c>
       <c r="G34" t="n">
-        <v>130644.21312789</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1555,18 +1643,21 @@
         <v>939.6202</v>
       </c>
       <c r="G35" t="n">
-        <v>130644.21312789</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,18 +1679,21 @@
         <v>3187.5861</v>
       </c>
       <c r="G36" t="n">
-        <v>133831.79922789</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,18 +1715,21 @@
         <v>391.4186</v>
       </c>
       <c r="G37" t="n">
-        <v>134223.21782789</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1654,18 +1751,21 @@
         <v>3719.4325</v>
       </c>
       <c r="G38" t="n">
-        <v>130503.78532789</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,18 +1787,21 @@
         <v>7835.2715</v>
       </c>
       <c r="G39" t="n">
-        <v>122668.51382789</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,18 +1823,21 @@
         <v>16694</v>
       </c>
       <c r="G40" t="n">
-        <v>105974.51382789</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,18 +1859,23 @@
         <v>11892.6452</v>
       </c>
       <c r="G41" t="n">
-        <v>105974.51382789</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>48.21</v>
+      </c>
+      <c r="I41" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1786,18 +1897,21 @@
         <v>6107</v>
       </c>
       <c r="G42" t="n">
-        <v>105974.51382789</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1819,18 +1933,21 @@
         <v>700.5289</v>
       </c>
       <c r="G43" t="n">
-        <v>106675.04272789</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1852,18 +1969,23 @@
         <v>215.6876</v>
       </c>
       <c r="G44" t="n">
-        <v>106675.04272789</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>48.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1885,18 +2007,23 @@
         <v>9244</v>
       </c>
       <c r="G45" t="n">
-        <v>97431.04272788999</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>48.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,18 +2045,23 @@
         <v>3999.5489</v>
       </c>
       <c r="G46" t="n">
-        <v>101430.59162789</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>48.21</v>
+      </c>
+      <c r="I46" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +2083,23 @@
         <v>17952.1861</v>
       </c>
       <c r="G47" t="n">
-        <v>83478.40552788999</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>48.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,18 +2121,23 @@
         <v>2796.9</v>
       </c>
       <c r="G48" t="n">
-        <v>83478.40552788999</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>48.21</v>
+      </c>
+      <c r="I48" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2017,18 +2159,23 @@
         <v>1669</v>
       </c>
       <c r="G49" t="n">
-        <v>83478.40552788999</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>48.21</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,18 +2197,23 @@
         <v>5365.3447</v>
       </c>
       <c r="G50" t="n">
-        <v>88843.75022788999</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>48.21</v>
+      </c>
+      <c r="I50" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2083,18 +2235,23 @@
         <v>6514.9326</v>
       </c>
       <c r="G51" t="n">
-        <v>88843.75022788999</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>48.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +2273,21 @@
         <v>250</v>
       </c>
       <c r="G52" t="n">
-        <v>88843.75022788999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +2309,21 @@
         <v>11400.5544</v>
       </c>
       <c r="G53" t="n">
-        <v>100244.30462789</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2345,21 @@
         <v>27200</v>
       </c>
       <c r="G54" t="n">
-        <v>127444.30462789</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2381,21 @@
         <v>24000</v>
       </c>
       <c r="G55" t="n">
-        <v>127444.30462789</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2417,21 @@
         <v>14100</v>
       </c>
       <c r="G56" t="n">
-        <v>127444.30462789</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2453,21 @@
         <v>2417.3215</v>
       </c>
       <c r="G57" t="n">
-        <v>127444.30462789</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2489,21 @@
         <v>25400</v>
       </c>
       <c r="G58" t="n">
-        <v>152844.30462789</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2525,21 @@
         <v>668</v>
       </c>
       <c r="G59" t="n">
-        <v>152844.30462789</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2561,21 @@
         <v>87254.503</v>
       </c>
       <c r="G60" t="n">
-        <v>240098.80762789</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2597,21 @@
         <v>472.9</v>
       </c>
       <c r="G61" t="n">
-        <v>239625.90762789</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2633,21 @@
         <v>12</v>
       </c>
       <c r="G62" t="n">
-        <v>239637.90762789</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2669,21 @@
         <v>2733.8726</v>
       </c>
       <c r="G63" t="n">
-        <v>236904.03502789</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2705,21 @@
         <v>2742.1216</v>
       </c>
       <c r="G64" t="n">
-        <v>234161.91342789</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2741,21 @@
         <v>32941.489</v>
       </c>
       <c r="G65" t="n">
-        <v>201220.42442789</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2777,21 @@
         <v>18.1818</v>
       </c>
       <c r="G66" t="n">
-        <v>201202.24262789</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2813,21 @@
         <v>2277.843</v>
       </c>
       <c r="G67" t="n">
-        <v>198924.39962789</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2849,21 @@
         <v>2765.6252</v>
       </c>
       <c r="G68" t="n">
-        <v>196158.77442789</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2885,21 @@
         <v>1852.0177</v>
       </c>
       <c r="G69" t="n">
-        <v>198010.79212789</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2921,21 @@
         <v>642.2252</v>
       </c>
       <c r="G70" t="n">
-        <v>197368.56692789</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2957,21 @@
         <v>599.2670000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>196769.29992789</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2993,21 @@
         <v>117.7767</v>
       </c>
       <c r="G72" t="n">
-        <v>196769.29992789</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +3029,21 @@
         <v>1113.1375</v>
       </c>
       <c r="G73" t="n">
-        <v>195656.16242789</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +3065,21 @@
         <v>13647.9912</v>
       </c>
       <c r="G74" t="n">
-        <v>182008.17122789</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +3101,21 @@
         <v>1005.6095</v>
       </c>
       <c r="G75" t="n">
-        <v>181002.56172789</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +3137,21 @@
         <v>7220.8148</v>
       </c>
       <c r="G76" t="n">
-        <v>173781.74692789</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +3173,21 @@
         <v>1215.4495</v>
       </c>
       <c r="G77" t="n">
-        <v>173781.74692789</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +3209,21 @@
         <v>50000</v>
       </c>
       <c r="G78" t="n">
-        <v>123781.74692789</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +3245,21 @@
         <v>210.9394</v>
       </c>
       <c r="G79" t="n">
-        <v>123992.68632789</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,18 +3281,21 @@
         <v>140.9166</v>
       </c>
       <c r="G80" t="n">
-        <v>123992.68632789</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,18 +3317,21 @@
         <v>394.2528</v>
       </c>
       <c r="G81" t="n">
-        <v>123598.43352789</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3106,18 +3353,21 @@
         <v>84</v>
       </c>
       <c r="G82" t="n">
-        <v>123682.43352789</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3139,18 +3389,21 @@
         <v>1544.702</v>
       </c>
       <c r="G83" t="n">
-        <v>123682.43352789</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3172,18 +3425,21 @@
         <v>5850.2564</v>
       </c>
       <c r="G84" t="n">
-        <v>123682.43352789</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3205,18 +3461,21 @@
         <v>10178.74203983</v>
       </c>
       <c r="G85" t="n">
-        <v>133861.17556772</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3238,18 +3497,21 @@
         <v>10123.21138211</v>
       </c>
       <c r="G86" t="n">
-        <v>133861.17556772</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3271,18 +3533,21 @@
         <v>5527.9517</v>
       </c>
       <c r="G87" t="n">
-        <v>139389.12726772</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3304,18 +3569,21 @@
         <v>8722.7521</v>
       </c>
       <c r="G88" t="n">
-        <v>139389.12726772</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3337,18 +3605,21 @@
         <v>152005.8772</v>
       </c>
       <c r="G89" t="n">
-        <v>291395.00446772</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3370,18 +3641,21 @@
         <v>10279.5135</v>
       </c>
       <c r="G90" t="n">
-        <v>301674.5179677201</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3403,18 +3677,21 @@
         <v>27193.7472</v>
       </c>
       <c r="G91" t="n">
-        <v>274480.7707677201</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3436,18 +3713,21 @@
         <v>40947.6754</v>
       </c>
       <c r="G92" t="n">
-        <v>315428.4461677201</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3469,18 +3749,21 @@
         <v>2438.0396</v>
       </c>
       <c r="G93" t="n">
-        <v>312990.4065677201</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3502,18 +3785,21 @@
         <v>10490.0771</v>
       </c>
       <c r="G94" t="n">
-        <v>312990.4065677201</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1.047964760497995</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3535,18 +3821,15 @@
         <v>27776</v>
       </c>
       <c r="G95" t="n">
-        <v>285214.4065677201</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,18 +3851,15 @@
         <v>29096.746</v>
       </c>
       <c r="G96" t="n">
-        <v>285214.4065677201</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3601,18 +3881,15 @@
         <v>93641.7659</v>
       </c>
       <c r="G97" t="n">
-        <v>378856.1724677201</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3634,18 +3911,15 @@
         <v>5788.5519</v>
       </c>
       <c r="G98" t="n">
-        <v>373067.62056772</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3667,18 +3941,15 @@
         <v>6754.4291</v>
       </c>
       <c r="G99" t="n">
-        <v>373067.62056772</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3700,18 +3971,15 @@
         <v>312.902</v>
       </c>
       <c r="G100" t="n">
-        <v>373067.62056772</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3733,18 +4001,15 @@
         <v>2300</v>
       </c>
       <c r="G101" t="n">
-        <v>375367.62056772</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3766,18 +4031,15 @@
         <v>37057.23699066</v>
       </c>
       <c r="G102" t="n">
-        <v>412424.8575583801</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3799,18 +4061,15 @@
         <v>6203</v>
       </c>
       <c r="G103" t="n">
-        <v>406221.8575583801</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3832,18 +4091,15 @@
         <v>27181.1382</v>
       </c>
       <c r="G104" t="n">
-        <v>433402.99575838</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,18 +4121,15 @@
         <v>2287.9999568</v>
       </c>
       <c r="G105" t="n">
-        <v>433402.99575838</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3898,18 +4151,15 @@
         <v>4.32e-05</v>
       </c>
       <c r="G106" t="n">
-        <v>433402.99575838</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3931,18 +4181,15 @@
         <v>939.0728</v>
       </c>
       <c r="G107" t="n">
-        <v>432463.92295838</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3964,18 +4211,15 @@
         <v>902.2464</v>
       </c>
       <c r="G108" t="n">
-        <v>431561.67655838</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3997,18 +4241,15 @@
         <v>54398.053</v>
       </c>
       <c r="G109" t="n">
-        <v>377163.62355838</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4030,18 +4271,15 @@
         <v>27769.7611</v>
       </c>
       <c r="G110" t="n">
-        <v>377163.62355838</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,18 +4301,15 @@
         <v>616.7942</v>
       </c>
       <c r="G111" t="n">
-        <v>377163.62355838</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4096,18 +4331,15 @@
         <v>2285.9866</v>
       </c>
       <c r="G112" t="n">
-        <v>374877.63695838</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4129,18 +4361,15 @@
         <v>1170</v>
       </c>
       <c r="G113" t="n">
-        <v>376047.63695838</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4162,18 +4391,15 @@
         <v>1170</v>
       </c>
       <c r="G114" t="n">
-        <v>374877.63695838</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4195,18 +4421,15 @@
         <v>109.0908</v>
       </c>
       <c r="G115" t="n">
-        <v>374768.54615838</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4228,18 +4451,15 @@
         <v>1170</v>
       </c>
       <c r="G116" t="n">
-        <v>375938.54615838</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4261,18 +4481,15 @@
         <v>2581.6936</v>
       </c>
       <c r="G117" t="n">
-        <v>373356.85255838</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4294,18 +4511,15 @@
         <v>22446.2804</v>
       </c>
       <c r="G118" t="n">
-        <v>350910.57215838</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4327,18 +4541,15 @@
         <v>4328.7101</v>
       </c>
       <c r="G119" t="n">
-        <v>355239.28225838</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4360,18 +4571,15 @@
         <v>1712.2746</v>
       </c>
       <c r="G120" t="n">
-        <v>355239.28225838</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4393,18 +4601,15 @@
         <v>15</v>
       </c>
       <c r="G121" t="n">
-        <v>355239.28225838</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4426,18 +4631,15 @@
         <v>11</v>
       </c>
       <c r="G122" t="n">
-        <v>355228.28225838</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
